--- a/해커톤/최종규격/오킹_최종규격.xlsx
+++ b/해커톤/최종규격/오킹_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E181F2-98CB-4F24-9E61-7915F420BB1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4471F113-C7B7-43C9-9C2D-403055D06095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="76">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,264 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>역대 최고 후원금 받았습니다. ㅣ오킹TVㅣ</t>
-  </si>
-  <si>
-    <t>여자친구에게 삥뜯겼었습니다...ㅣ윷놀이 썰 (2/2)ㅣ오킹TVㅣ</t>
-  </si>
-  <si>
-    <t>이것은 저의 과거입니다 ㅣ윷놀이 편 (1/2)ㅣ오킹TVㅣ</t>
-  </si>
-  <si>
-    <t>저는 바보입니다.</t>
-  </si>
-  <si>
-    <t>ㅗㅜㅑ... ㅣ주간 핫클립ㅣ</t>
-  </si>
-  <si>
-    <t>집에 빙어낚시장을 만든다!?</t>
-  </si>
-  <si>
-    <t>매일 가던 미용실에서 혼났습니다... ㅣ오킹TVㅣ</t>
-  </si>
-  <si>
-    <t>저는 여기까지인가 봅니다...</t>
-  </si>
-  <si>
-    <t>일반인들은 모르는 군대 사건사고</t>
-  </si>
-  <si>
-    <t>하루 방송해서 번 돈</t>
-  </si>
-  <si>
-    <t>저는 악성우결충입니다</t>
-  </si>
-  <si>
-    <t>여동생이랑 ㅎㅎ l 주간핫클립</t>
-  </si>
-  <si>
-    <t>여자친구와 데이트에서 군대 썰 푸는 미친X</t>
-  </si>
-  <si>
-    <t>이 악물고 광고 구걸하는 영상</t>
-  </si>
-  <si>
-    <t>롤 대회에서 나온 말도 안되는 대역전 경기</t>
-  </si>
-  <si>
-    <t>나의 값어치는 얼마일까?</t>
-  </si>
-  <si>
-    <t>여자친구한테 '이 곳' 가자고 했습니다.  l 결혼식 썰(3/3)</t>
-  </si>
-  <si>
-    <t>커플들이 싸우는 이유  l 결혼식 썰(2/3)</t>
-  </si>
-  <si>
-    <t>여자친구랑 같이 결혼식장 갔습니다. l 결혼식 썰(1/3)</t>
-  </si>
-  <si>
-    <t>뜨거운 치킨 7분 안에 먹기</t>
-  </si>
-  <si>
-    <t>먹방 영상으로 야X 사이트 올라간 사람</t>
-  </si>
-  <si>
-    <t>사장님 늦은 새벽 죄송합니다 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>위장하고 '실전투입'했습니다.</t>
-  </si>
-  <si>
-    <t>군대 VR 게임이 있다?!!</t>
-  </si>
-  <si>
-    <t>점심시간에 보면 든든한 영상</t>
-  </si>
-  <si>
-    <t>군인 전용 쿠팡에서 온 전설의 보급상자</t>
-  </si>
-  <si>
-    <t>공원에서 노는데 싸움을 목격했다.</t>
-  </si>
-  <si>
-    <t>죄송합니다</t>
-  </si>
-  <si>
-    <t>신병휴가 나올때 조심하세요...</t>
-  </si>
-  <si>
-    <t>어제 유튜브 커뮤니티 글에 대하여</t>
-  </si>
-  <si>
-    <t>옛날 통닭 해먹기</t>
-  </si>
-  <si>
-    <t>어머니 죄송합니다...</t>
-  </si>
-  <si>
-    <t>인터넷 용어 함부로 쓰면 안되는 이유 l 유튜브 수익 vs 나머지(2/2)</t>
-  </si>
-  <si>
-    <t>돈 벌고 싶으면 유튜브 시작하세요 l 유튜브 수익 vs 나머지(1/2)</t>
-  </si>
-  <si>
-    <t>알고보니 상견례였던거임 ㅋㅋ l 오잉커플 썰(3/3)</t>
-  </si>
-  <si>
-    <t>오퀸(여동생)아 미안해ㅋㅋㅋ 오빠라면 무조건 공감!</t>
-  </si>
-  <si>
-    <t>혼자가 되었습니다.</t>
-  </si>
-  <si>
-    <t>편집자 잘릴 각오하고 올립니다... 우선 가볍게 야x 걸린 썰로 간다.</t>
-  </si>
-  <si>
-    <t>BJ인척하고 아프리카TV 부스 들어가봤습니다 ㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>여사친을 여자친구로 만드는 방법 풀버전</t>
-  </si>
-  <si>
-    <t>여자친구는 이 영상 안봤으면 좋겠다...</t>
-  </si>
-  <si>
-    <t>사랑과 '우정'사이</t>
-  </si>
-  <si>
-    <t>내가 너희를 치유해주리라 l 사촌형님 썰(3/3)</t>
-  </si>
-  <si>
-    <t>첫 만남부터 무릎 꿇고 사과한 썰(feat. 이태준, 사촌형) l 사촌형님 썰 (2/3)</t>
-  </si>
-  <si>
-    <t>수능 망쳐서 '극단적 선택' 한다는 채팅을 보고...</t>
-  </si>
-  <si>
-    <t>형 저 '60만 유튜버'에요~ ㅋㅋ l 사촌형님 썰 (1/3)</t>
-  </si>
-  <si>
-    <t>술 먹고 우는 찐따에게 주도 좀 알려주세요.</t>
-  </si>
-  <si>
-    <t>2주년 방송이 마지막 방송이 될 뻔 했습니다.</t>
-  </si>
-  <si>
-    <t>당했습니다...</t>
-  </si>
-  <si>
-    <t>노숙자 아닙니다...</t>
-  </si>
-  <si>
-    <t>일반인은 모르는 군대에서 벌어지는 사건들</t>
-  </si>
-  <si>
-    <t>이 사람 저격합니다. 제발 망해라</t>
-  </si>
-  <si>
-    <t>고무신들 개꿀팁! 여친 부모님에게 군인이란??</t>
-  </si>
-  <si>
-    <t>1시간 동안 수능 대박 기원 굿하기</t>
-  </si>
-  <si>
-    <t>유격훈련 힘들어서 탈영했습니다(feat. 삼겹살 먹방)</t>
-  </si>
-  <si>
-    <t>유격훈련 X됐다!</t>
-  </si>
-  <si>
-    <t>최고급 와규 와구와구 꺼억</t>
-  </si>
-  <si>
-    <t>남자들의 수명이 짧은 이유</t>
-  </si>
-  <si>
-    <t>뭘 좋아할지 몰라서 먹방 모음으로 준비해봤어용</t>
-  </si>
-  <si>
-    <t>방탄소년단 팬분들 정말 죄송합니다... I Love BTS! l 피옷가게 촬영 후기 썰(2/3)</t>
-  </si>
-  <si>
-    <t>유튜버 최초로 전참시 피오님과 같이 촬영했습니다 l 피옷가게 촬영 후기 썰(1/3)</t>
-  </si>
-  <si>
-    <t>생방송 중에 누군가가 집에 들어왔다...?</t>
-  </si>
-  <si>
-    <t>피오님 때문에 여동생이 큰 사고 쳤습니다...</t>
-  </si>
-  <si>
-    <t>하... 예비군에서 백만원 쓰고 왔습니다..  l 전설의 예비군 썰(6/6)</t>
-  </si>
-  <si>
-    <t>역시 군대는 신병 놀리는게 개꿀잼이죠?ㅋㅋ l 전설의 예비군 썰(5/6)</t>
-  </si>
-  <si>
-    <t>정말 고민 많이했습니다...</t>
-  </si>
-  <si>
-    <t>예비군에서 만난 역대급 교관님 ㅋㅋㅋㅋㅋl 전설의 예비군 썰 (4/6)</t>
-  </si>
-  <si>
-    <t>예비군에서 유사 팬미팅 했습니다 ㅎㅎ l 전설의 예비군 썰 (3/6)</t>
-  </si>
-  <si>
-    <t>예비군도 군대랑 다를게 없네요 ㅡㅡ l 전설의 예비군 썰 (2/6)</t>
-  </si>
-  <si>
-    <t>50만 유튜버가 예비군을 갔을때 생기는 일 l 전설의 예비군 썰 (1/6)</t>
-  </si>
-  <si>
-    <t>방송 중 최대위기를 맞았습니다...!</t>
-  </si>
-  <si>
-    <t>연애중인 남사친, 여사친 꼭 지켜야되는 선</t>
-  </si>
-  <si>
-    <t>롤 트롤의 마음을 돌려놓은 한마디 채팅</t>
-  </si>
-  <si>
-    <t>애들은 잠시 뒤로가기를 눌러주세요 l 세상에서 가장 쓸데없는 토론 l 오킹TV l</t>
-  </si>
-  <si>
-    <t>조폭 출신으로 추정된 친구와 같은 반이 되었다. l 일진 썰 (2/2) l 오킹TV</t>
-  </si>
-  <si>
-    <t>과거 XX동 편의점을 털었던 악명 높은 일진?! l 일진 썰 (1/2) l 오킹TV</t>
-  </si>
-  <si>
-    <t>'이것'하는 사람 무조건 꼰대. 딱! 정해드립니다. l 오킹TV l</t>
-  </si>
-  <si>
-    <t>충격적인 군대의 현실?? 이게 군대다 ㅋㅋ l 오킹TV l</t>
-  </si>
-  <si>
-    <t>먹방 중에 방송 정지당할 뻔 했습니다.ㅣ주간핫클립ㅣ오킹TVㅣ</t>
-  </si>
-  <si>
-    <t>군대에서 '??' 허락해주면 재입대 하겠습니다. ㅣ오킹TVㅣ</t>
-  </si>
-  <si>
-    <t>군대 얘기 중 여자 시청자의 충격적인 채팅 l 오킹TV l</t>
-  </si>
-  <si>
-    <t>제대로 한판 붙었습니다. (feat.존예후배) l 오킹TV l</t>
-  </si>
-  <si>
-    <t>이거 OGN에서는 무조건 통편집 각인데 ㅋㅋㅋ  l OGN 황혼에서 새벽까지 (3/3) l 오킹TV</t>
-  </si>
-  <si>
-    <t>새삼 느끼는 OGN의 위대함...   l OGN 황혼에서 새벽까지 (2/3) l 오킹TV</t>
-  </si>
-  <si>
-    <t>힘조절 실패해서 하마터면 고소당할 뻔했습니다... 죄송합니다.  l OGN 황혼에서 새벽까지 (1/3) l 오킹TV</t>
-  </si>
-  <si>
-    <t>크게 한탕할 수 있는 고수익 알바 소개해드립니다! l 개그신동 썰 (3/3) l 오킹TV l</t>
-  </si>
-  <si>
     <t>10:26</t>
   </si>
   <si>
@@ -500,6 +242,14 @@
   </si>
   <si>
     <t>7:02</t>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -561,13 +311,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -908,15 +672,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,16 +705,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
       </c>
       <c r="D2">
         <v>83106</v>
@@ -965,18 +732,21 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
       </c>
       <c r="D3">
         <v>97272</v>
@@ -991,18 +761,21 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
       </c>
       <c r="D4">
         <v>96248</v>
@@ -1017,18 +790,21 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
       </c>
       <c r="D5">
         <v>174251</v>
@@ -1043,18 +819,21 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
       </c>
       <c r="D6">
         <v>277033</v>
@@ -1069,18 +848,21 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
       </c>
       <c r="D7">
         <v>158465</v>
@@ -1095,18 +877,21 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
       </c>
       <c r="D8">
         <v>233247</v>
@@ -1121,18 +906,21 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
       </c>
       <c r="D9">
         <v>218017</v>
@@ -1147,18 +935,21 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
       </c>
       <c r="D10">
         <v>238084</v>
@@ -1173,18 +964,21 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
       </c>
       <c r="D11">
         <v>133686</v>
@@ -1199,18 +993,21 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
       </c>
       <c r="D12">
         <v>201097</v>
@@ -1225,18 +1022,21 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
       </c>
       <c r="D13">
         <v>315122</v>
@@ -1251,18 +1051,21 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
       </c>
       <c r="D14">
         <v>292410</v>
@@ -1277,18 +1080,21 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
       </c>
       <c r="D15">
         <v>92422</v>
@@ -1303,18 +1109,21 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
       </c>
       <c r="D16">
         <v>144993</v>
@@ -1329,18 +1138,21 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.5</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
       </c>
       <c r="D17">
         <v>137927</v>
@@ -1355,18 +1167,21 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
       </c>
       <c r="D18">
         <v>185901</v>
@@ -1381,18 +1196,21 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
       </c>
       <c r="D19">
         <v>288418</v>
@@ -1407,18 +1225,21 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
       </c>
       <c r="D20">
         <v>235106</v>
@@ -1433,18 +1254,21 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
       </c>
       <c r="D21">
         <v>253606</v>
@@ -1459,18 +1283,21 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
       </c>
       <c r="D22">
         <v>393986</v>
@@ -1485,18 +1312,21 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
       </c>
       <c r="D23">
         <v>287920</v>
@@ -1511,18 +1341,21 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
       </c>
       <c r="D24">
         <v>135783</v>
@@ -1537,18 +1370,21 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
       </c>
       <c r="D25">
         <v>232092</v>
@@ -1563,18 +1399,21 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
       </c>
       <c r="D26">
         <v>182774</v>
@@ -1589,18 +1428,21 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
       </c>
       <c r="D27">
         <v>254042</v>
@@ -1615,18 +1457,21 @@
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
       </c>
       <c r="D28">
         <v>157819</v>
@@ -1641,18 +1486,21 @@
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
       </c>
       <c r="D29">
         <v>301062</v>
@@ -1667,18 +1515,21 @@
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.5</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
       </c>
       <c r="D30">
         <v>360360</v>
@@ -1693,18 +1544,21 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
       </c>
       <c r="D31">
         <v>154088</v>
@@ -1719,18 +1573,21 @@
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I31">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
       </c>
       <c r="D32">
         <v>345918</v>
@@ -1745,18 +1602,21 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I32">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
       </c>
       <c r="D33">
         <v>218818</v>
@@ -1771,18 +1631,21 @@
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
       </c>
       <c r="D34">
         <v>149443</v>
@@ -1797,18 +1660,21 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
       </c>
       <c r="D35">
         <v>153293</v>
@@ -1823,18 +1689,21 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
       </c>
       <c r="D36">
         <v>210444</v>
@@ -1849,18 +1718,21 @@
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
       </c>
       <c r="D37">
         <v>341954</v>
@@ -1875,18 +1747,21 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I37">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
       </c>
       <c r="D38">
         <v>454443</v>
@@ -1901,18 +1776,21 @@
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.5</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
       </c>
       <c r="D39">
         <v>453392</v>
@@ -1927,18 +1805,21 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
       </c>
       <c r="D40">
         <v>352936</v>
@@ -1953,18 +1834,21 @@
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.5</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
       </c>
       <c r="D41">
         <v>290469</v>
@@ -1979,18 +1863,21 @@
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3.5</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
       </c>
       <c r="D42">
         <v>570819</v>
@@ -2005,18 +1892,21 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I42">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.5</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
       </c>
       <c r="D43">
         <v>1007311</v>
@@ -2031,18 +1921,21 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I43">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.5</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
       </c>
       <c r="D44">
         <v>220050</v>
@@ -2057,18 +1950,21 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I44">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
       </c>
       <c r="D45">
         <v>256726</v>
@@ -2083,18 +1979,21 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I45">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.5</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
       </c>
       <c r="D46">
         <v>229765</v>
@@ -2109,18 +2008,21 @@
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I46">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.5</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
       </c>
       <c r="D47">
         <v>570413</v>
@@ -2135,18 +2037,21 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I47">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.5</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
       </c>
       <c r="D48">
         <v>366209</v>
@@ -2161,18 +2066,21 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.5</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
-        <v>4</v>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
       </c>
       <c r="D49">
         <v>390479</v>
@@ -2187,18 +2095,21 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I49">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
       </c>
       <c r="D50">
         <v>181123</v>
@@ -2213,18 +2124,21 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I50">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.5</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
       </c>
       <c r="D51">
         <v>194907</v>
@@ -2239,18 +2153,21 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I51">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
       </c>
       <c r="D52">
         <v>493102</v>
@@ -2265,18 +2182,21 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I52">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
       </c>
       <c r="D53">
         <v>345519</v>
@@ -2291,18 +2211,21 @@
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I53">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.5</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
       </c>
       <c r="D54">
         <v>120514</v>
@@ -2317,18 +2240,21 @@
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I54">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
       </c>
       <c r="D55">
         <v>114918</v>
@@ -2343,18 +2269,21 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I55">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.5</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>74</v>
       </c>
       <c r="D56">
         <v>166816</v>
@@ -2369,18 +2298,21 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I56">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
       </c>
       <c r="D57">
         <v>269097</v>
@@ -2395,18 +2327,21 @@
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.5</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>74</v>
       </c>
       <c r="D58">
         <v>394734</v>
@@ -2421,18 +2356,21 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I58">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.5</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
       </c>
       <c r="D59">
         <v>263472</v>
@@ -2447,18 +2385,21 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I59">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.5</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
       </c>
       <c r="D60">
         <v>545516</v>
@@ -2473,18 +2414,21 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I60">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.5</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
       </c>
       <c r="D61">
         <v>199112</v>
@@ -2499,18 +2443,21 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I61">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.5</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>4</v>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
       </c>
       <c r="D62">
         <v>329692</v>
@@ -2525,18 +2472,21 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I62">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.5</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
       </c>
       <c r="D63">
         <v>420333</v>
@@ -2551,18 +2501,21 @@
         <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I63">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.5</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>4</v>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
       </c>
       <c r="D64">
         <v>287613</v>
@@ -2577,18 +2530,21 @@
         <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I64">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2.5</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
       </c>
       <c r="D65">
         <v>304434</v>
@@ -2603,18 +2559,21 @@
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I65">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.5</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
       </c>
       <c r="D66">
         <v>195413</v>
@@ -2629,18 +2588,21 @@
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I66">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
       </c>
       <c r="D67">
         <v>535173</v>
@@ -2655,18 +2617,21 @@
         <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.5</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
       </c>
       <c r="D68">
         <v>226954</v>
@@ -2681,18 +2646,21 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.5</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
       </c>
       <c r="D69">
         <v>193918</v>
@@ -2707,18 +2675,21 @@
         <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I69">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.5</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
       </c>
       <c r="D70">
         <v>253853</v>
@@ -2733,18 +2704,21 @@
         <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I70">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.5</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
       </c>
       <c r="D71">
         <v>366360</v>
@@ -2759,18 +2733,21 @@
         <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I71">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3.5</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
       </c>
       <c r="D72">
         <v>249398</v>
@@ -2785,18 +2762,21 @@
         <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I72">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.5</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
       </c>
       <c r="D73">
         <v>105040</v>
@@ -2811,18 +2791,21 @@
         <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I73">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.5</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
       </c>
       <c r="D74">
         <v>201915</v>
@@ -2837,18 +2820,21 @@
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I74">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.5</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
       </c>
       <c r="D75">
         <v>329202</v>
@@ -2863,18 +2849,21 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I75">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.5</v>
       </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
       </c>
       <c r="D76">
         <v>385575</v>
@@ -2889,18 +2878,21 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.5</v>
       </c>
-      <c r="B77" t="s">
-        <v>83</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
       </c>
       <c r="D77">
         <v>456937</v>
@@ -2915,18 +2907,21 @@
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I77">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.5</v>
       </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
       </c>
       <c r="D78">
         <v>283560</v>
@@ -2941,18 +2936,21 @@
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I78">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.5</v>
       </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>74</v>
       </c>
       <c r="D79">
         <v>730736</v>
@@ -2967,18 +2965,21 @@
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I79">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.5</v>
       </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
       </c>
       <c r="D80">
         <v>312254</v>
@@ -2993,18 +2994,21 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I80">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2.5</v>
       </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
       </c>
       <c r="D81">
         <v>317016</v>
@@ -3019,18 +3023,21 @@
         <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I81">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2.5</v>
       </c>
-      <c r="B82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
       </c>
       <c r="D82">
         <v>464583</v>
@@ -3045,18 +3052,21 @@
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I82">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2.5</v>
       </c>
-      <c r="B83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
       </c>
       <c r="D83">
         <v>376044</v>
@@ -3071,18 +3081,21 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I83">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
       </c>
       <c r="D84">
         <v>33190</v>
@@ -3097,18 +3110,21 @@
         <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I84">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.5</v>
       </c>
-      <c r="B85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>74</v>
       </c>
       <c r="D85">
         <v>32082</v>
@@ -3123,18 +3139,21 @@
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I85">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3.5</v>
       </c>
-      <c r="B86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>74</v>
       </c>
       <c r="D86">
         <v>54096</v>
@@ -3149,18 +3168,21 @@
         <v>2</v>
       </c>
       <c r="H86" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2.5</v>
       </c>
-      <c r="B87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>74</v>
       </c>
       <c r="D87">
         <v>122226</v>
@@ -3175,7 +3197,10 @@
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>159</v>
+        <v>73</v>
+      </c>
+      <c r="I87">
+        <v>670000</v>
       </c>
     </row>
   </sheetData>
